--- a/src/pythonProject/classPointCoefficient.xlsx
+++ b/src/pythonProject/classPointCoefficient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsebso/Desktop/CP2/Final_Project_Points_Selector_Project/src/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D17D4E-1AC7-0B47-A4D3-FDBE0A52CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FA5A29-EC7A-CD4B-8E93-8E75A08D882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{6CAA0CE4-3659-334D-9A24-A65948317647}"/>
+    <workbookView xWindow="14560" yWindow="760" windowWidth="15680" windowHeight="17440" xr2:uid="{6CAA0CE4-3659-334D-9A24-A65948317647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Block_1.0</t>
   </si>
@@ -528,6 +528,30 @@
   </si>
   <si>
     <t>Waitlist_69</t>
+  </si>
+  <si>
+    <t>[-5.82476529e-01</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>&lt;----</t>
+  </si>
+  <si>
+    <t>no 0 points</t>
+  </si>
+  <si>
+    <t>&lt;---</t>
+  </si>
+  <si>
+    <t>yes 0 points</t>
+  </si>
+  <si>
+    <t>Try to use one smooth demand instead of all different</t>
+  </si>
+  <si>
+    <t>More features</t>
   </si>
 </sst>
 </file>
@@ -886,15 +910,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA1875-1831-8A44-B41D-508A3665D10E}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,10 +944,20 @@
         <v>-3.71589711E-2</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-1.29108249</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0.14122174500000001</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-1.1129470100000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -949,10 +983,20 @@
         <v>-4.0767856099999999E-2</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>-1.2398114200000001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.37278729</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-9.20916227E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1.2445801599999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -978,10 +1022,20 @@
         <v>0.29466486800000002</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>0.11110060099999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.5598984299999996</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6.4129145999999997</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-1.79224122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1007,10 +1061,23 @@
         <v>-4.8830933399999998E-2</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <v>2.3094680400000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-2.01370403</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-2.79288165</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.42234512299999999</v>
+      </c>
+      <c r="O4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1036,10 +1103,23 @@
         <v>-0.10897668100000001</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>-0.38112022600000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.150481212</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.193130943</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-8.3874628199999995E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1065,10 +1145,20 @@
         <v>-1.06264972E-2</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <v>3.6269870900000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.95803161599999997</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-4.03744748</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-1.2680495899999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1094,10 +1184,20 @@
         <v>0.66289672799999999</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="1">
+        <v>2.1674153399999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.2366450900000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.87886339199999997</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-4.0227198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1123,10 +1223,20 @@
         <v>0.69021299800000002</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="1">
+        <v>-0.67076151100000003</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-3.3718222</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1.6375747700000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-3.27375704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1152,10 +1262,20 @@
         <v>0.74297018400000003</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>0.63234795200000005</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-3.6437007399999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-2.42062263</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.2457885200000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1181,10 +1301,20 @@
         <v>0.81782189999999999</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="1">
+        <v>3.0200492600000002E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.8254533399999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-7.8614063499999998E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-0.16846366600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1210,10 +1340,20 @@
         <v>0.72990690000000003</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>-3.40235748</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.23962524099999999</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1.46158364</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-0.318878457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1239,10 +1379,20 @@
         <v>0.68100955399999996</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="1">
+        <v>2.0097867599999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.1213668399999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-0.63513613199999996</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.6553644300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1268,10 +1418,20 @@
         <v>0.86965574099999998</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <v>-2.2121889800000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.5109828700000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-0.988639029</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1.1081686399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1297,10 +1457,20 @@
         <v>-0.75656226599999998</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <v>-0.24999673</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.362372847</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.286833438</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2.2168960000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1326,10 +1496,20 @@
         <v>-0.88742233199999998</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="1">
+        <v>-0.12645398899999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1.34931896</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-0.112977094</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1.14913069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1355,10 +1535,20 @@
         <v>0.99590537300000004</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="1">
+        <v>0.15912738700000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.89466874</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.37005494700000002</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.6770074399999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1384,10 +1574,20 @@
         <v>-0.69951182199999995</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="1">
+        <v>1.1003180100000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.65520390799999995</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.4804300100000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.0545030299999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1413,10 +1613,20 @@
         <v>1.06020643</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="1">
+        <v>3.0840706600000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.3522358299999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.64964347300000003</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.6663948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1442,10 +1652,20 @@
         <v>-1.9413528499999999</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <v>-6.2292270499999997E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1.3823896200000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.2932432600000001</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8.8341744900000008E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1471,10 +1691,20 @@
         <v>-4.7782230400000003</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="1">
+        <v>3.6269870900000001</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.3303840999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-3.40437251</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.924345419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1500,10 +1730,20 @@
         <v>0.27036133699999998</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="1">
+        <v>-1.19023743</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5.4938881200000003</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.05757981</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.925170096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1529,10 +1769,20 @@
         <v>0.231476188</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <v>-2.95249228</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.9813264100000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-3.9392260600000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-4.2545922000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1558,10 +1808,20 @@
         <v>3.1206325000000001</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>-3.59876058</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3.5370933500000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-6.3258244100000001</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-4.7735863600000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1587,10 +1847,20 @@
         <v>-0.10897668100000001</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="1">
+        <v>-7.25849806</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-4.9630356500000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-5.2098196400000001</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-0.49123802900000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1616,10 +1886,20 @@
         <v>2.4365965900000002</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>-3.5572481599999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.20577067099999999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-0.87111662700000003</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-3.0770312899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1645,10 +1925,20 @@
         <v>-0.66073863899999996</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="1">
+        <v>-0.12785300899999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1.1250169999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-2.83123127</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.48206369399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1674,10 +1964,20 @@
         <v>1.1243810400000001</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <v>-3.6686247499999998E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-0.61514868</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2.05517774</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.41471441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1703,10 +2003,20 @@
         <v>-4.2737261799999997</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <v>0.16256675700000001</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.286833438</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2.3793311799999999</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-9.0531355699999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1732,10 +2042,20 @@
         <v>-0.287197384</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <v>-7.87176089E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4.1562399599999997</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.6051648199999999</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.489999719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1761,10 +2081,20 @@
         <v>-11.240281</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <v>1.90382494</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.0473161099999999</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.64330012400000003</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4.3799074400000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1790,10 +2120,20 @@
         <v>-6.8849979399999999</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <v>-1.2350243000000001</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.65520390799999995</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.5535760300000001</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2.0545030299999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1819,10 +2159,20 @@
         <v>1.30260595</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <v>2.44077053</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.3522358299999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.9849857800000001</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-1.4266358100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1848,10 +2198,20 @@
         <v>0.61268952300000001</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="1">
+        <v>-6.2292270499999997E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1.3823896200000001</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3.2932432600000001</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.0930306099999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1877,10 +2237,14 @@
         <v>1.9339230700000001</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="1">
+        <v>8.8341744900000008E-3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +2273,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +2302,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1966,8 +2330,11 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1992,11 +2359,16 @@
       <c r="I38" s="1">
         <v>0.200649314</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2021,11 +2393,13 @@
       <c r="I39" s="1">
         <v>0.84325361200000004</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2054,7 +2428,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
